--- a/doc/ue_asset_instance.xlsx
+++ b/doc/ue_asset_instance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8436D3A2-E669-4B9E-A8A2-D2AD99DE86D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618E182-E9DC-4704-A3E1-A5897ABB46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="材质" sheetId="5" r:id="rId3"/>
     <sheet name="Particle" sheetId="3" r:id="rId4"/>
     <sheet name="动作" sheetId="4" r:id="rId5"/>
+    <sheet name="staticmesh" sheetId="6" r:id="rId6"/>
+    <sheet name="UBodySetup" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>UE的资源是asset文件，不可修改的，但是例如粒子，动画，材质等都是运行时各个对象自己计算的，所以是需要从asset创建各自实例的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +274,57 @@
   <si>
     <t>！！！从父材质中获取信息，然后下面会创新的，插入到自己的动态数据列表里</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理碰撞信息啥的都是存在与UStaticMesh里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后UStaticMeshComponent从里面读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * BodySetup contains all collision information that is associated with a single asset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * A single BodySetup instance is shared among many BodyInstances so that geometry data is not duplicated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Assets typically implement a GetBodySetup function that is used during physics state creation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @see GetBodySetup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @see FBodyInstance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>UCLASS(collapseCategories, MinimalAPI)</t>
+  </si>
+  <si>
+    <t>class UBodySetup : public UBodySetupCore</t>
+  </si>
+  <si>
+    <t>!!!包含所有物理碰撞信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Container for a physics representation of an object */</t>
+  </si>
+  <si>
+    <t>USTRUCT(BlueprintType)</t>
+  </si>
+  <si>
+    <t>struct ENGINE_API FBodyInstance : public FBodyInstanceCore</t>
   </si>
 </sst>
 </file>
@@ -862,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B36F52-49C0-46BE-B757-38D0F866C36D}">
   <dimension ref="B4:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -1234,4 +1287,121 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A5E00B-5E9F-469C-82EE-DAB3B5FC9B0A}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4196EA-FEEE-4A99-BD32-E87B0B943926}">
+  <dimension ref="B3:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>